--- a/CODIGOS DE ARTICULOS.xlsx
+++ b/CODIGOS DE ARTICULOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\JAJI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B899BE-641B-4ECE-A30F-349BE02A6C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2CBB8A-C37C-4A86-99B2-8ED06FDFFF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B340ADFB-D82E-4E45-9970-9F12D4CC00F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Arroz</t>
   </si>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +151,12 @@
     <font>
       <sz val="120"/>
       <color theme="1"/>
-      <name val="barcode font"/>
+      <name val="C39HrP24DhTt"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="C39HrP24DhTt"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,14 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,8 +527,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" customHeight="1"/>
@@ -530,8 +536,9 @@
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="95.5546875" style="4" customWidth="1"/>
-    <col min="5" max="7" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="111.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="4"/>
+    <col min="6" max="7" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="254.4" customHeight="1">
@@ -542,8 +549,9 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
+      <c r="D1" s="5" t="str">
+        <f>_xlfn.CONCAT("*",A1,"*")</f>
+        <v>*7441006022390*</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="254.4" customHeight="1">
@@ -553,8 +561,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+      <c r="D2" s="5" t="str">
+        <f t="shared" ref="D2:D16" si="0">_xlfn.CONCAT("*",A2,"*")</f>
+        <v>*7441078256679*</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="254.4" customHeight="1">
@@ -564,8 +573,9 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
+      <c r="D3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*7441006818283*</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="254.4" customHeight="1">
@@ -575,8 +585,9 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*7441040606938*</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="254.4" customHeight="1">
@@ -586,8 +597,9 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*7441078257546*</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="254.4" customHeight="1">
@@ -597,8 +609,9 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*2648190000004*</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="254.4" customHeight="1">
@@ -608,8 +621,9 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*2644600000008*</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="254.4" customHeight="1">
@@ -619,8 +633,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*7441001628405*</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="254.4" customHeight="1">
@@ -630,8 +645,9 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*7441000712570*</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="254.4" customHeight="1">
@@ -641,8 +657,9 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*0756969000017*</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="254.4" customHeight="1">
@@ -652,8 +669,9 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*0806246110448*</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="254.4" customHeight="1">
@@ -663,8 +681,9 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*7441042699624*</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="254.4" customHeight="1">
@@ -674,8 +693,9 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*7441074130027*</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="254.4" customHeight="1">
@@ -685,8 +705,9 @@
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*7441078256686*</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="254.4" customHeight="1">
@@ -696,8 +717,9 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*2618310000009*</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="254.4" customHeight="1">
@@ -707,11 +729,13 @@
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>*0731701017041*</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CODIGOS DE ARTICULOS.xlsx
+++ b/CODIGOS DE ARTICULOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\JAJI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2CBB8A-C37C-4A86-99B2-8ED06FDFFF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FB203-6BDC-424A-BC31-3ECF7228A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B340ADFB-D82E-4E45-9970-9F12D4CC00F7}"/>
   </bookViews>
@@ -179,15 +179,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,8 +526,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" customHeight="1"/>
@@ -537,8 +536,9 @@
     <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1"/>
     <col min="4" max="4" width="111.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="4"/>
     <col min="6" max="7" width="11.5546875" style="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="254.4" customHeight="1">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="str">
+      <c r="D1" s="4" t="str">
         <f>_xlfn.CONCAT("*",A1,"*")</f>
         <v>*7441006022390*</v>
       </c>
@@ -561,7 +561,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f t="shared" ref="D2:D16" si="0">_xlfn.CONCAT("*",A2,"*")</f>
         <v>*7441078256679*</v>
       </c>
@@ -573,7 +573,7 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*7441006818283*</v>
       </c>
@@ -585,7 +585,7 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*7441040606938*</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*7441078257546*</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*2648190000004*</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*2644600000008*</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*7441001628405*</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*7441000712570*</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*0756969000017*</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*0806246110448*</v>
       </c>
@@ -681,7 +681,7 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*7441042699624*</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*7441074130027*</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*7441078256686*</v>
       </c>
@@ -717,7 +717,7 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*2618310000009*</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>*0731701017041*</v>
       </c>

--- a/CODIGOS DE ARTICULOS.xlsx
+++ b/CODIGOS DE ARTICULOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\JAJI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FB203-6BDC-424A-BC31-3ECF7228A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ACF125-8797-420B-B63A-3532981B2FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B340ADFB-D82E-4E45-9970-9F12D4CC00F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B340ADFB-D82E-4E45-9970-9F12D4CC00F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" customHeight="1"/>
